--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/78_Van_2020.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/78_Van_2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C223D96-415B-4395-AFDE-68F5E65ADE5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7AFDB36-E822-49A6-9599-0E6ABAA3AF69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="699" xr2:uid="{D1BF8EA2-1A52-44F1-B53B-1D46D5484C67}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="699" xr2:uid="{AF48D1B5-E862-4A80-85CC-ECA38273B55B}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -990,14 +990,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{D5735A57-8B05-4D44-BFAD-B45D7D5B30A5}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{BD19D1E7-59AA-4C87-A0D0-769C40CD9202}"/>
-    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{8D17CAC7-A4D4-4F5C-B119-B34951054AB7}"/>
-    <cellStyle name="Normal 3" xfId="5" xr:uid="{CAA59DEE-22F6-4C98-A9CD-475D584D2738}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{2CAFD262-7E4D-48BC-B37E-F85CEBADA944}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{DD036DE7-85CA-4117-B93B-D8F172DA24CB}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{61851873-269D-421B-ACFC-7EA4CD1272B5}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{972B636A-C3E3-4855-9A09-23E343F3258C}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{1A6D2FAA-7B52-458A-B4F4-12C4C0FBF7D8}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{E449F9E2-816C-4CD5-B8D2-3A8F94FCA2AB}"/>
+    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{CA5DBA4D-2D39-41A2-A866-4687DA36AABD}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{0D9E8DDF-1DE1-4A89-9CEF-8D30E690E5C3}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{4DE39B7B-10E0-4063-87CB-2939DBC38EA9}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{41F9F0A8-208C-4D50-AF88-AE65640D8212}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{1CBEDAD8-5618-4BD6-BC21-D7DBBACBCFD2}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{11203DC6-99DB-48B0-B729-50F8D149C879}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1367,7 +1367,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{180FD2EC-A9CA-4B4C-8B34-2CE94DF9A57A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00D14155-5E12-471E-BA01-B299B34FC652}">
   <dimension ref="A2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2605,18 +2605,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{491DC0A7-0AD9-4CDA-90A7-38498D51F222}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E1480B62-2A97-470A-B6CD-1D75BC7FBD50}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0388F8BA-59C2-45E4-9BE6-826F9134287D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F7295FE6-4FD4-428C-8172-C216387E4EE9}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{D37E4D1E-9DB0-46CD-9F77-6BD430FC4553}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9114F546-C8A8-4D5C-B5E9-320B99968E77}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CA33560F-716B-4B61-819A-5E937D2CBFDA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A99554E3-B753-49C9-B81E-9EFD29468C17}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3ABE2DAA-341A-4342-8FAA-7028311948E7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{309E7AB4-AF03-4EB3-A225-6F17B6148CCB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{640341C9-65AF-444C-B56A-FD0970ACCD33}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5FACF0AD-57DE-4B08-B51F-BB6ED9DE7E8A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C3B002A5-D479-4CFB-B3CC-62280B658C53}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D4F57764-9C13-4C25-8E17-C0583C7DD7C1}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BC8E9587-5888-4422-ABEC-755C55EEC433}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{05262DDA-BDB6-4F84-B033-A41F3EC458B3}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{98FC9360-42DE-4941-808B-DB0B6F714266}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A0F6B5B7-EAB9-4894-BDCB-880863466920}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{63ABE375-1CC8-4E50-A060-9AF77729FCD5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5A9EEDC1-389E-42C2-8E56-FA2D7FC191A3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{08582FF9-10F9-4E54-9FB8-FC68987EC705}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CB2C6FCC-79B5-476E-99B4-857057D41DB4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{614E038E-AEC8-4AA3-B7CE-BF2B88FF8523}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F4AFBF7C-B4C0-4557-8F86-F39C7AF84F0B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2629,7 +2629,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08B14BFF-684E-4D6D-AD60-70E15A8F0EB8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC12390C-C1FD-4A0A-B9FF-96E679C532BA}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3844,18 +3844,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E9B9C814-6EDA-4AC0-BB30-C2EB55A67C0E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BF8149E0-11B3-4008-AC39-A73299A7E21A}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{32721411-FF87-4F34-B186-930EA6DB173D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{52D3040E-D8AF-4920-899E-B25D37C2B3D9}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{FC1CC871-A853-4BB3-9D77-C4CF5D88F346}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{97498B51-2522-4210-8337-4E63C932AF3E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2CA49732-745B-4236-A30E-22912F4B72BA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EAFBCF43-E7DD-44E9-BC4E-DA7D6FF5745E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9C37BDC7-3194-4CE2-9AC1-697B3B6B8649}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{23E681AB-12AA-473A-A462-BD64A625CF19}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E32C9CC4-5444-456F-B496-FCB912E6C3A3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3631463D-95DC-4F01-BB4F-877DA0F62D1D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{51E0A99F-8A69-404F-BBDF-B95D7A8F155C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F367F656-C21C-4693-9287-3D2F3839242C}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{96EA2923-4B98-44BC-B956-87E4F8BE3C92}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EAE122B5-2450-47D6-96D7-353F05953044}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{35167617-F241-4D7A-A365-9D01BD9D5565}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DCBE971E-E350-470A-AEDD-F24FB1A4DBD4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{53A62612-D9F4-4383-B098-BE35D348E424}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B9F5C2D8-1B6E-4E4F-BBC0-A87DB8AF9D91}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A669B083-08E4-471F-82D0-22ADA7D5BA9C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5672A495-ACC4-471E-BD73-9DF5082EFD63}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6C074BEA-6691-44DC-936F-F64D5F77D4CA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0A52CAFB-2315-4520-AA97-37E619E982FC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3868,7 +3868,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8114DF56-586C-41CE-AB7F-12875F2BEBC4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D9F0EBB-A5ED-4303-BA04-79BF221CDEB4}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5087,18 +5087,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B2BC9F08-209A-48D9-8E17-0A049DACA234}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{32561A79-B1B6-4133-B3EE-F35AF1F3CDFA}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D4C52E44-D7F5-48C1-B673-B28D9CBF9AEA}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D56F4503-A29C-47C0-8AA5-E55BA727EA08}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{7FBAF642-C923-47CB-859C-B9B1827EDDF8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{42761E81-F20C-4314-A3EE-FC428EE0B166}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7AE0F3E3-7AAB-4787-9FAA-F10704D0CD35}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C221809F-FAA5-46F4-A6C2-B47A8761FA33}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6C496DA9-7AE4-4E2B-81E2-DAB175243E01}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{78FA9158-0966-4BB9-A5CE-BAA3DE57BD5A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C94214E7-8AEB-4068-8B15-5AEDFEB621D2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A40BA7D9-FED5-4AB1-B606-E7F25D651B4B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1A6DD14E-7EC3-438F-AD30-AB2CDE0D3B6A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FB7C8DC5-112B-41A8-BC63-8CE4A7097F83}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{68EB8BB8-02FF-4836-9BE5-447591DE98F7}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{94430A5C-DCF9-4BF2-9C67-3547EF8C31CC}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{41F27A9E-BAC3-4C14-B1C9-230F40545B3A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{166E4758-7EDF-4C35-A156-38E6ED20FCEC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F8E56D71-FA21-4783-A741-782C9DAD4B14}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9774F8F4-8C42-40FC-A04E-2489B7A358F0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{008C7F0D-7817-4436-B207-A985F0D93C20}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1BF4C7DF-C6AC-4108-9007-4D85F98C79CE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5DC8BDDA-A5AC-4246-B7CA-16C3BB5B647F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{66291B22-3DAF-42DE-B1A8-6F91AE7F6D16}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5111,7 +5111,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7330BA8A-2A82-4C58-8C8C-E0924ABE2EE3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5305F6FB-E943-4491-AB8E-0E5AF6E769DE}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6318,18 +6318,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5E103B9C-D1E5-4154-94D9-2BA78266B519}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{354655CB-518B-4FEC-9249-547C366D5C56}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1D474437-3E70-4B61-8656-C2A4E14AA889}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9ED6AD41-7532-4082-8791-870C095863E8}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{2671E8E2-0E57-46B7-B6CB-A50757FC17A4}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F2627F74-C5D4-4644-9DE5-CA0F524D5AB9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CA145523-BCD6-42F7-A8BA-B39A72547164}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9C02F3EF-9983-4E36-8D11-7ED461272454}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D87D1774-E620-4384-B7E9-DB913662B64D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C4BA1FB4-090D-49E6-B7FA-BFC93AD6A470}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5FA7444E-CFCA-4310-9737-DE715D4C0FFB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{24661417-9263-44B0-A32B-58E388FEEDC0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A359A3D2-D4A5-473C-A05B-6165E1822C3C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{312DA8C6-0841-40D5-88FE-7210A096040C}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{353BD2A4-9B47-45DC-848B-B0B46673D0A8}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{421651FA-73CF-4788-97AA-5EBC45EEA9B7}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{435FD5E7-8C65-42EA-9712-92ECA968A0B4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D317AC59-CAFB-4412-BC16-4E6493BD09B2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A0CC21B4-653D-425F-99CF-8A56FB57E70B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5657A7E4-97BC-4BF2-98E4-A4DBE236024C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5E9C36EA-11A9-4980-A7C1-01EF048E02D9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5499D38D-4943-4663-B5DD-60E9B802D240}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3DB0764A-E06B-41F8-BAC2-ED9AEA23D0C4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4AC6D948-0298-499F-8B25-B38C10DCE17D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6342,7 +6342,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11048BB2-A000-4166-B9B2-00366B75927C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CFD9366-DCC5-438D-A49D-50B3685B1617}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7577,18 +7577,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A8ADE2B2-AA8D-4521-A365-D9DFA886E168}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6959A6E0-898A-495C-9418-1F53EB257406}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4BBFD7A5-3A93-42DC-8C4B-EEADC75E310C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{888A1268-6E14-4B1A-BC1E-19597C820F55}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{A4DC48BC-2D9B-4A6D-A3F8-7C1ED5477ECF}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{468036FA-E184-42F1-912B-C0A4B2897902}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F7687F6F-2809-4A6B-A388-14BF5779C9E2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D30D2DA5-F50D-4F1E-AF67-8861BE044977}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8288E045-FBF6-4557-B4BA-4E9289FD7CD8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{783759C0-E48F-4F92-8797-7876084A4F11}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C9C7D19F-7F92-4622-9B77-A36D990239A6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8C0B92BC-B810-4046-BCF1-48239B3FF38A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3F370AFC-DF8F-4B8A-917B-ACBA9ABF8477}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EC5FE4EB-74E8-484F-9CA1-2BD58BBBD00C}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9BFEEA6F-4C15-4D88-9D43-95FB30B73A87}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E80ED8F1-C2B4-4A2F-A4E7-69853B4D74DA}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{1D6A5B5E-C96E-4A28-AF46-51F06D3402CD}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8972974B-81BA-4273-943E-EFD13C0CCFA5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FE5205D8-70AD-4362-B8CA-C69C9F330626}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2582FA13-B728-45FB-BCF1-B28C06469EBA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C0B6648F-8EFC-453B-AABC-828C4F50311B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E48B51DD-2E45-4645-A458-8667545CF0F3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{81E3A893-696D-4671-AC57-5ED5F5106566}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1303C8C3-DFB5-4EFB-8BA7-F41FE78691D6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7601,7 +7601,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6664585E-26B8-4C7E-BC61-BC0AF58589DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5BCD839-D72F-4C0B-85FF-B679B60157B4}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8836,18 +8836,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B73C08F9-9E6D-4E12-ADC4-3296DD2CB094}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B1907C26-C1A4-481A-9078-EDCD1631A5B1}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9BB5E258-081E-423B-8F3F-76BD5572462A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D3F65037-C031-4D8E-A605-017A23BDAECC}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{AD1C3A50-6353-457E-9A05-2387144C12E0}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D6AB2841-8F45-4E72-A06E-5AA08EDF5E3C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BCE50503-48E4-4952-B816-BDEE96E747AB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E1020EAA-D49A-47F5-8C8C-18A6C540EC9A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{220DD368-A875-469E-9700-1DED19E454DE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D3857ACA-4C8D-4A70-96AA-ED29275A8A02}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4E40ED84-F2F3-4DA8-96D6-C8EF6AFF5698}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{26D08037-2E78-4BFB-82D0-52575D6C56E5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BF2CFB46-E31B-4197-81AD-6D76EA20D109}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B8114B0F-E32A-44AC-A18A-1FACBCDCF4D1}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C2AF25AF-D959-449B-8FBA-9D37CE0ED16A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8566F250-80B5-42D4-BDCE-13AE53F2807F}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{3C3A6184-FCED-47EC-AFA1-41D32D1172DD}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D8EFFBE0-FF4F-41DE-A477-923350536AEE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{209F7C0B-508E-466D-97D4-1C4A28D672E6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C375C5C3-495B-43F0-A11C-2E3831E7266C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5F749B12-EA4D-4082-895B-011693AE585D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{14ECBDB9-B565-444C-8C68-4AAD994F465F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E63BFA41-D554-4F36-8592-52C06AEBFCC3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8F627E38-353D-479E-888F-09E2AD10E622}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8860,7 +8860,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AFE9CE4-395F-4E1D-B936-4C41E797FA62}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C5BFA4-D9AA-4B34-BDBC-1666EE4B487D}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10091,18 +10091,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9FC7A827-2E14-45B5-A45F-59CAAF29A4A9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2F655B23-B49E-49FD-8D48-8CFE4A0E203D}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F6DA6948-98F7-47E3-92EC-7AC0834CFDF7}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E06CD8E4-97E3-400D-AF17-17998AA4407E}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{C8C5F016-FD3E-4B58-A8FA-A5DB779378C8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8A49FE55-92BD-4A15-8F8E-91591BBCA858}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9662762F-6EA6-4928-8228-2400CC7851F6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5EA20899-3E53-4C58-BF9E-1B0EE8E1B132}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0E985E4F-9F9A-45A5-BFE1-24BECF381390}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0E6A7B43-8D05-4C97-B781-5C8416C888E2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{89FB552E-F455-429E-997A-19C7537F6EAB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0F09B882-63FA-409C-8F26-782542FB81D7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{93352DD8-EE15-4DA3-9F17-526D29164EE1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DF20759A-A4C3-4995-8522-26F28A1F8328}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0AA9E4B4-ECC2-4A5F-9130-4E03984523BF}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A0AA1312-BCC8-4F5A-B34A-224F1422E528}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{A7FD229F-5F0F-427E-A02F-5EE46F12731D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C2601D18-1EF6-47EC-9E10-4DDF4FE3ACD0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BE16D884-8B05-4478-9840-12C036C83487}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{375F45C8-77AA-4ABE-A42E-56B09DE10F80}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EAA46D90-A684-4327-80E2-CDC6E05B7A2D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{65D1EEFC-A298-4C6E-BFF6-C47F13FCDA57}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C7AD3C54-B09E-470E-B948-3A766268F7E0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CA163963-34B2-44BB-A555-55EB057E6529}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10115,7 +10115,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{546A013D-0F0E-4A75-949E-CF45ED15CEB6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BAA41FD-81BD-4B10-8037-450A32FF41C2}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11346,18 +11346,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{14F76C6D-5C25-4161-9FDA-B58FACDC5D43}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{741F9C46-F6BF-4F55-A253-922FC2CC6F5E}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A748DCDA-307D-4EAB-803A-C6978009AA88}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{49081C34-F0B8-431B-BA5C-09A7D4F829A1}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{5173E555-C117-4F5F-9AC0-3482A6DC6078}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E09DC53F-DB4D-4260-A492-8F29EBD6EF67}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{14F408DC-B3A8-44A1-AE76-59A68043EEA2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{28A901EC-7D3D-40FB-990D-9779226B22D2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{087869A4-C5A0-4AE8-B457-D0CE3EFDDCB0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{279C73C3-B97C-47E0-B8B9-B2CE77012325}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D6EC613B-92D5-4530-80E0-142335704B82}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{03F961C4-D45B-4341-885B-852A43D1C9D9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{288BD71E-C7EB-483F-9990-075D2FBBC55C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D33C0435-20A6-448E-80FD-90AFA1E976AA}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D39C7D7B-4D92-47FF-8183-286E65107218}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BC1E037D-D6DE-4264-85EF-0A406A345CF8}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{8AA7648C-DBBB-4B9C-9572-8B5D9E0C462F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D72CDC59-4187-46D2-91F6-587A14BE4C8F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BCEA46D4-8F67-4B78-B676-BCF49810F0FB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D624A40A-D54A-4679-B0AD-E4D633227C5B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{159B8F7C-ECD6-46DF-ABCC-D2CB0D2807E0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{75A07AD0-23A4-4998-97E3-725C615F4434}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7F39F0ED-F65D-4601-9859-DDF9CFE3331B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D65CF25F-FFFE-46AF-82C9-63F80BD9DF29}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11370,7 +11370,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEA1D962-F31D-41E9-AEDF-AAE22232064F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C508B3EE-3C9D-4736-8366-F0DEFBE1268A}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12601,18 +12601,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E67FBB96-36CF-4162-AE66-2D492ED55B08}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{02DFA2AE-2C90-4323-9D49-ACE89D9EFA2E}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{196610AC-2EAD-4634-BD71-A4FD284A13E6}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D26F4E96-B622-4F4A-843C-F1B12DB11167}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{60E0E976-0570-4402-BE22-1F7F1F40F2E5}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3DBB9D8F-7668-4CBF-A56D-F30FA5C16D37}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A90DF7B5-C95F-4FF2-BC9B-9337573570F0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B4833098-CA04-4B97-88B9-5A2E0DD0B1E3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5CDF3312-B48D-4B7F-AA92-CBC2128CE87D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{415CD30A-BD75-467F-9D7B-1A8FF45BB68F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{35755AB3-89EC-4DFB-A99C-1D8C4B8A042E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B0026264-40E2-43E4-8454-83A475E0CED3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4F45AC1C-8ED1-4076-B48E-1FA85262BF52}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BEFD71FC-E7DB-4F5B-9792-43DC9B781201}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F4091B74-BDED-4EB7-A768-0AE39E53F3EC}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1AFF65C6-F5B9-49F9-8763-311576DDBBEA}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{8572E974-E34C-47EF-AC5F-6C1252F8EC8B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2E4D245E-7B75-4E9B-9A6F-34161D287D9B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FA88326F-7C37-4FF6-AD53-8D701A661CBA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9DE21EE7-CA4C-457B-BAC3-4630A9E20BDD}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1F54AEFC-D5DF-4846-92F3-097E1077A01C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0E55A309-A63D-4BD9-B9FB-731DB65AF030}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{47CA80D6-3240-40A8-AFFC-76A2B5F5C262}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4CA4942E-228B-4E66-B574-C27D5CE5310C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12625,7 +12625,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECFABA50-A2D9-4160-841F-30B392E718D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC2D11A-62D4-4139-B37D-886D3D674C8F}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13856,18 +13856,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A2E328D7-409F-4196-B579-1A5823083FBA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{25207E66-B7C1-4AB7-87D9-D2C229880AF9}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C93554A0-AA8C-41A1-9768-D3F931964BA0}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8F049A41-199F-4E66-A8A1-3F07C4D013F4}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{7DF6A84A-9653-4920-BA0C-556BD12763C6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8B002AAA-81BF-4174-B535-F2D25C131193}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C29FA0B7-7FB5-4D16-AC13-0CBB33335B2D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D993A684-B07A-48A6-A9D9-9C589EC04E4D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D192B7DD-0E13-4783-8BE8-9E99AF41C36D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2AE9C837-F235-4F01-ACD4-68E46B4F943D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5C8DAECE-4B23-4CFF-AA42-9A804A5E6C9D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D7125BC6-D473-4289-A48B-A0979981A821}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{11DEEFF4-9163-41A4-94DA-FF69A11E25DF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{493E0F65-AF42-4567-8AB3-AFE4A0B4F310}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F1FBAF30-BAE9-4F9F-9E5F-B858C39E4A68}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D54A6071-0945-41F5-A2AE-C3F2866385EC}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{E9C8719E-FC5C-49DF-9852-2BB65E87D48C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F0DE6AB5-1707-4699-8531-D6C9C09A1CFA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F3213D08-8375-4279-8420-01378414C6C0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{72C17791-38B4-4B6C-8CFA-55883C2ECC06}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EB874535-3410-4721-9D38-C2C902A2D4E2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FAB75617-909F-4A61-B08E-39B100E63FF8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6FD26B3C-4EBD-4300-9C8E-FE6017B8B194}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DB65C0AA-1086-4030-A4E0-909B2BE6C08E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13880,7 +13880,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{114F036B-01DD-4FBC-A99F-471241DC8AD6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19180891-C538-4E07-A8C9-905E243FA5A3}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15107,18 +15107,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9635887C-FDCE-454E-BD83-DA0540CF6F42}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3AB7CEB2-CAE0-425B-B879-FA73A178C623}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E1728E56-D1AE-4AEE-96B5-DF1049721C71}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{506657E0-5C48-4554-A06B-BD9A8F5EE179}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{81348493-6A2B-45DB-AF50-A6EBAC43FC62}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{39936FD8-C38A-4504-9EA5-22E70E04FA1D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E507679E-47E0-4B64-B895-99047F63A4E5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B895BE6F-EFD2-46A5-B79D-3EB0594EC338}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0EDF4A8A-FB3A-4A0A-9733-FCCF21165198}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{90081557-D64F-4E83-9232-02DA2E550C8F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{472EB872-21EF-417A-98B0-D627997A23D8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D28DA7C5-48F9-47E5-B5BA-C6E57F2CB798}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FDBB67BB-2A49-4251-8ED8-73B07C49B175}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{01D364C3-F4BF-4DF5-8662-14958B3FB33B}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{FBF12FB5-3B6A-433C-9C5D-C741BDE10F0C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3687368C-AA0A-46C7-BB6B-149DFB7FA69F}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{A6AC4AA6-8B49-4DD9-A8F0-831D1A41CFF9}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BE7A5CCB-58DA-4BD9-B9B9-DCD684938204}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8732C8AD-9DF9-4D87-8E50-DD3DF61A601C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7DDCE49C-B5AA-4252-8BD4-02CA7B9F4811}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8CBEE394-8410-473A-BA63-4D32EEFEE340}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F2D88940-096B-4380-AFD1-3511D1C4452D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{72F6ACFE-A248-4A07-959B-C9C55A604C92}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{93F3C1B5-BFEF-48FF-AD5F-2086F86E4E91}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15131,7 +15131,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5488557-1767-4F3D-A863-70B7E2111BB9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCD6FCDB-FBAB-4050-A922-3B3D749646E0}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16358,18 +16358,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{377F489E-C731-4116-B729-904E6446EA24}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1B0A8206-A2C7-4A79-9C79-5B2455EB9C78}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4A397728-B7A8-4F45-BA7D-D87AC1246B31}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B6CF5967-B5EE-45DC-8EAE-8BDFD258FD81}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{A73FCB4A-A9D7-486F-9F91-8E5E6616C15D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5795E031-7C4A-492F-9862-FD21B0DD6C0E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1138673C-BBA3-42FD-84E7-EC75BD5291D4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{61DCAA71-ADF6-4693-A0A0-5CDEC381CE4E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D7466128-8BE2-44EE-9B82-19081E039790}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D47FE0A4-3F42-4EAC-9AFA-BC35E0BA68D8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CBD20968-BD12-4DDD-8EE6-D16B02EE0259}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{617A9367-6BD2-4A19-935B-ED31ECB92407}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6C4D2E04-D3F2-43A4-B0F2-BDB35DBF3C39}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B5656AF4-138E-4200-AD4E-2DCA755D7485}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0A0A382C-4EFD-4F03-A712-BB3AD384ED83}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9E370A03-0AAC-4925-AD5C-B1AB41001BD0}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{A8CF7972-20F8-465D-A363-170D76F041AE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AD633857-40B2-4DDE-A255-4C06205CA39E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D1836F9D-76B6-46B8-AC10-DD2F44B00ED6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F4617581-0DE9-472F-A1AF-96A04E47BFD9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7C701A5B-2317-44EA-91DE-DB49691A536E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{23C6E83E-5347-41C6-8402-5D30B398E3F2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F2007C98-A811-401D-851F-380EFAB8E7DE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FC0ECF28-5A3C-4ED8-A4A4-BAF6C3D29D4C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
